--- a/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
@@ -11224,7 +11224,7 @@
       <c r="W122" s="39"/>
       <c r="X122" s="39"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="18"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -11247,7 +11247,7 @@
       <c r="W123" s="39"/>
       <c r="X123" s="39"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="18"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -11270,7 +11270,7 @@
       <c r="W124" s="39"/>
       <c r="X124" s="39"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="18"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -11293,7 +11293,7 @@
       <c r="W125" s="39"/>
       <c r="X125" s="39"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="18"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -11316,7 +11316,7 @@
       <c r="W126" s="39"/>
       <c r="X126" s="39"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="18"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -11339,7 +11339,7 @@
       <c r="W127" s="39"/>
       <c r="X127" s="39"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
         <v>160</v>
       </c>
@@ -11394,7 +11394,7 @@
       <c r="W128" s="39"/>
       <c r="X128" s="39"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="18"/>
       <c r="M129" s="47"/>
       <c r="O129" s="39"/>
@@ -20596,7 +20596,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21392,7 +21392,7 @@
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="18">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>0</v>
@@ -21418,7 +21418,7 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="18">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -23445,7 +23445,7 @@
       <c r="W122" s="39"/>
       <c r="X122" s="39"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -23468,7 +23468,7 @@
       <c r="W123" s="39"/>
       <c r="X123" s="39"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -23491,7 +23491,7 @@
       <c r="W124" s="39"/>
       <c r="X124" s="39"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -23514,7 +23514,7 @@
       <c r="W125" s="39"/>
       <c r="X125" s="39"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -23537,7 +23537,7 @@
       <c r="W126" s="39"/>
       <c r="X126" s="39"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -23560,7 +23560,7 @@
       <c r="W127" s="39"/>
       <c r="X127" s="39"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="18" t="s">
         <v>160</v>
       </c>
@@ -23615,7 +23615,7 @@
       <c r="W128" s="39"/>
       <c r="X128" s="39"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="M129" s="47"/>
       <c r="O129" s="39"/>

--- a/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/m_topac_student_tue_nl/Documents/Year 1/Q4/2IO75 - DBL Embedded Systems/GitHub Repository/Sprint2/week4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\Sprint2\week4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F8E235CF-5E78-4A40-B8DD-EB6070ED8463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA0DA80E-ED36-48EF-9379-650159ED3866}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2707E8-0646-4EBC-A39C-A8C66D86DC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -636,23 +636,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1069,7 +1073,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.39583333333333337</c:v>
@@ -1310,16 +1314,16 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.395833333333333</c:v>
+                  <c:v>1.7291666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15625</c:v>
+                  <c:v>1.3645833333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1145833333333333</c:v>
+                  <c:v>1.3229166666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97916666666666674</c:v>
+                  <c:v>1.4791666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1349,16 +1353,16 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.395833333333333</c:v>
+                  <c:v>1.7291666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15625</c:v>
+                  <c:v>1.3645833333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1145833333333333</c:v>
+                  <c:v>1.3229166666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97916666666666674</c:v>
+                  <c:v>1.4791666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1895,7 +1899,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.35416666666666669</c:v>
+                  <c:v>0.39583333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.10416666666666666</c:v>
@@ -1907,7 +1911,7 @@
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4166666666666667</c:v>
+                  <c:v>1.8333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4214,8 +4218,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4315,7 +4319,9 @@
         <f t="array" ref="B6">INDEX(Tasks,1,2)</f>
         <v>Sprint Planning</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="14">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
@@ -4419,10 +4425,18 @@
         <f t="array" ref="B10">INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="C10" s="14">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D10" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E10" s="44">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F10" s="44">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="11"/>
@@ -4445,10 +4459,18 @@
         <f t="array" ref="B11">INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="C11" s="14">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="E11" s="44">
+        <v>0.125</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G11" s="44"/>
       <c r="H11" s="39"/>
       <c r="I11" s="44"/>
@@ -4471,7 +4493,9 @@
         <f t="array" ref="B12">INDEX(Tasks,7,2)</f>
         <v xml:space="preserve">Sprint Task 1.1: Read course material </v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
@@ -4493,10 +4517,7 @@
       <c r="X12" s="39"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="str">
-        <f t="array" ref="B13">INDEX(Tasks,8,2)</f>
-        <v>Sprint Task 1.2: Feedback on example paper</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="44"/>
@@ -4857,7 +4878,7 @@
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -4885,7 +4906,7 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -4913,7 +4934,7 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -7221,19 +7242,19 @@
       </c>
       <c r="C128" s="46">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D128" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E128" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="F128" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G128" s="46">
         <f t="shared" si="0"/>
@@ -7290,43 +7311,43 @@
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D130" s="39">
         <f>SUM(D128,C128)</f>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E130" s="39">
         <f>SUM(E128,C128,D128)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F130" s="39">
         <f>SUM(C128:F128)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="G130" s="39">
         <f>SUM(C128:G128)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H130" s="39">
         <f>SUM(C128:H128)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I130" s="39">
         <f>SUM(C128:I128)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="J130" s="39">
         <f>SUM(C128:J128)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="K130" s="39">
         <f>SUM(C128:K128)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L130" s="39">
         <f>SUM(C128:L128)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M130" s="47"/>
       <c r="O130" s="39"/>
@@ -7346,43 +7367,43 @@
       </c>
       <c r="C131" s="39">
         <f>Parameters!$G$9-C130</f>
-        <v>5.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D131" s="39">
         <f>Parameters!$G$9-D130</f>
-        <v>5.833333333333333</v>
+        <v>5.2916666666666661</v>
       </c>
       <c r="E131" s="39">
         <f>Parameters!$G$9-E130</f>
-        <v>5.833333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="F131" s="39">
         <f>Parameters!$G$9-F130</f>
-        <v>5.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="G131" s="39">
         <f>Parameters!$G$9-G130</f>
-        <v>5.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="H131" s="39">
         <f>Parameters!$G$9-H130</f>
-        <v>5.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="I131" s="39">
         <f>Parameters!$G$9-I130</f>
-        <v>5.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="J131" s="39">
         <f>Parameters!$G$9-J130</f>
-        <v>5.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="K131" s="39">
         <f>Parameters!$G$9-K130</f>
-        <v>5.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="L131" s="39">
         <f>Parameters!$G$9-L130</f>
-        <v>5.833333333333333</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="O131" s="39"/>
       <c r="P131" s="39"/>
@@ -8971,7 +8992,7 @@
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -8999,7 +9020,7 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -9027,7 +9048,7 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -9119,7 +9140,7 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>0</v>
@@ -9145,7 +9166,7 @@
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>0</v>
@@ -9171,7 +9192,7 @@
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>0</v>
@@ -9197,7 +9218,7 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -13071,7 +13092,7 @@
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -13099,7 +13120,7 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -13127,7 +13148,7 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -17168,7 +17189,7 @@
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -17196,7 +17217,7 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -17224,7 +17245,7 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -17306,7 +17327,7 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>0</v>
@@ -17332,7 +17353,7 @@
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>0</v>
@@ -17358,7 +17379,7 @@
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>0</v>
@@ -17384,7 +17405,7 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -20595,7 +20616,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -21214,7 +21235,7 @@
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18"/>
       <c r="C27" s="10"/>
@@ -21239,7 +21260,7 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
@@ -21264,7 +21285,7 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
@@ -21340,7 +21361,7 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>0</v>
@@ -21366,7 +21387,7 @@
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>0</v>
@@ -21392,7 +21413,7 @@
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
     </row>
-    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="18">
         <f t="array" ref="B34">INDEX(Tasks,29,2)</f>
         <v>0</v>
@@ -21418,7 +21439,7 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
     </row>
-    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="18">
         <f t="array" ref="B35">INDEX(Tasks,30,2)</f>
         <v>0</v>
@@ -23445,7 +23466,7 @@
       <c r="W122" s="39"/>
       <c r="X122" s="39"/>
     </row>
-    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B123" s="18"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -23468,7 +23489,7 @@
       <c r="W123" s="39"/>
       <c r="X123" s="39"/>
     </row>
-    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B124" s="18"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -23491,7 +23512,7 @@
       <c r="W124" s="39"/>
       <c r="X124" s="39"/>
     </row>
-    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B125" s="18"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -23514,7 +23535,7 @@
       <c r="W125" s="39"/>
       <c r="X125" s="39"/>
     </row>
-    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B126" s="18"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -23537,7 +23558,7 @@
       <c r="W126" s="39"/>
       <c r="X126" s="39"/>
     </row>
-    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B127" s="18"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -23560,7 +23581,7 @@
       <c r="W127" s="39"/>
       <c r="X127" s="39"/>
     </row>
-    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B128" s="18" t="s">
         <v>160</v>
       </c>
@@ -23615,7 +23636,7 @@
       <c r="W128" s="39"/>
       <c r="X128" s="39"/>
     </row>
-    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B129" s="18"/>
       <c r="M129" s="47"/>
       <c r="O129" s="39"/>
@@ -25280,7 +25301,7 @@
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="18" t="str">
         <f t="array" ref="B27">INDEX(Tasks,22,2)</f>
@@ -25308,7 +25329,7 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
     </row>
-    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="18" t="str">
         <f t="array" ref="B28">INDEX(Tasks,23,2)</f>
@@ -25336,7 +25357,7 @@
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
     </row>
-    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="18" t="str">
         <f t="array" ref="B29">INDEX(Tasks,24,2)</f>
@@ -25418,7 +25439,7 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="18">
         <f t="array" ref="B32">INDEX(Tasks,27,2)</f>
         <v>0</v>
@@ -25444,7 +25465,7 @@
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
     </row>
-    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="18">
         <f t="array" ref="B33">INDEX(Tasks,28,2)</f>
         <v>0</v>
@@ -28772,7 +28793,7 @@
       </c>
       <c r="C6" s="48">
         <f>SUM('Serkan Efe Durusu'!C6,'Ismail Elmasry'!C6,'can Işmar'!C6,'Marios Papalouka'!C6,'Metehan Topaç'!C6,'Celine Zanders '!C6)</f>
-        <v>0.25</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="D6" s="48">
         <f>SUM('Serkan Efe Durusu'!D6,'Ismail Elmasry'!D6,'can Işmar'!D6,'Marios Papalouka'!D6,'Metehan Topaç'!D6,'Celine Zanders '!D6)</f>
@@ -28812,7 +28833,7 @@
       </c>
       <c r="M6" s="49">
         <f t="shared" ref="M6:M122" si="0">SUM(C6:L6)</f>
-        <v>0.35416666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="N6" s="50" t="str">
         <f t="array" ref="N6">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
@@ -28988,19 +29009,19 @@
       </c>
       <c r="C10" s="48">
         <f>SUM('Serkan Efe Durusu'!C10,'Ismail Elmasry'!C10,'can Işmar'!C10,'Marios Papalouka'!C10,'Metehan Topaç'!C10,'Celine Zanders '!C10)</f>
-        <v>0.5625</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D10" s="48">
         <f>SUM('Serkan Efe Durusu'!D10,'Ismail Elmasry'!D10,'can Işmar'!D10,'Marios Papalouka'!D10,'Metehan Topaç'!D10,'Celine Zanders '!D10)</f>
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="E10" s="48">
         <f>SUM('Serkan Efe Durusu'!E10,'Ismail Elmasry'!E10,'can Işmar'!E10,'Marios Papalouka'!E10,'Metehan Topaç'!E10,'Celine Zanders '!E10)</f>
-        <v>0.35416666666666663</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="F10" s="48">
         <f>SUM('Serkan Efe Durusu'!F10,'Ismail Elmasry'!F10,'can Işmar'!F10,'Marios Papalouka'!F10,'Metehan Topaç'!F10,'Celine Zanders '!F10)</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="G10" s="48">
         <f>SUM('Serkan Efe Durusu'!G10,'Ismail Elmasry'!G10,'can Işmar'!G10,'Marios Papalouka'!G10,'Metehan Topaç'!G10,'Celine Zanders '!G10)</f>
@@ -29028,7 +29049,7 @@
       </c>
       <c r="M10" s="51">
         <f t="shared" si="0"/>
-        <v>1.4166666666666667</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="N10" s="50" t="str">
         <f t="array" ref="N10">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M10/INDEX(Tasks,1,3),"")</f>
@@ -29042,7 +29063,7 @@
       </c>
       <c r="C11" s="48">
         <f>SUM('Serkan Efe Durusu'!C11,'Ismail Elmasry'!C11,'can Işmar'!C11,'Marios Papalouka'!C11,'Metehan Topaç'!D11,'Celine Zanders '!C11)</f>
-        <v>0.3125</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D11" s="48" t="e">
         <f>SUM('Serkan Efe Durusu'!D11,'Ismail Elmasry'!D11,'can Işmar'!D11,'Marios Papalouka'!D11,'Metehan Topaç'!#REF!,'Celine Zanders '!D11)</f>
@@ -29050,11 +29071,11 @@
       </c>
       <c r="E11" s="48">
         <f>SUM('Serkan Efe Durusu'!E11,'Ismail Elmasry'!E11,'can Işmar'!E11,'Marios Papalouka'!E11,'Metehan Topaç'!E11,'Celine Zanders '!E11)</f>
-        <v>0.35416666666666663</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="F11" s="48">
         <f>SUM('Serkan Efe Durusu'!F11,'Ismail Elmasry'!F11,'can Işmar'!F11,'Marios Papalouka'!F11,'Metehan Topaç'!F11,'Celine Zanders '!F11)</f>
-        <v>0.20833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="G11" s="48">
         <f>SUM('Serkan Efe Durusu'!G11,'Ismail Elmasry'!G11,'can Işmar'!G11,'Marios Papalouka'!G11,'Metehan Topaç'!G11,'Celine Zanders '!G11)</f>
@@ -29096,7 +29117,7 @@
       </c>
       <c r="C12" s="48">
         <f>SUM('Serkan Efe Durusu'!C12,'Ismail Elmasry'!C12,'can Işmar'!C12,'Marios Papalouka'!C12,'Metehan Topaç'!D12,'Celine Zanders '!C12)</f>
-        <v>0.1875</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="D12" s="48" t="e">
         <f>SUM('Serkan Efe Durusu'!D12,'Ismail Elmasry'!D12,'can Işmar'!D12,'Marios Papalouka'!D12,'Metehan Topaç'!#REF!,'Celine Zanders '!D12)</f>
@@ -35092,7 +35113,7 @@
     <row r="130" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B133" s="25"/>
     </row>
     <row r="134" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35137,19 +35158,19 @@
       </c>
       <c r="C135" s="44">
         <f>'Serkan Efe Durusu'!C128</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D135" s="44">
         <f>'Serkan Efe Durusu'!D128</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="E135" s="44">
         <f>'Serkan Efe Durusu'!E128</f>
-        <v>0</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="F135" s="44">
         <f>'Serkan Efe Durusu'!F128</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G135" s="44">
         <f>'Serkan Efe Durusu'!G128</f>
@@ -35177,7 +35198,7 @@
       </c>
       <c r="M135" s="54">
         <f t="shared" ref="M135:M143" si="1">SUM(C135:L135)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35513,19 +35534,19 @@
     <row r="143" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="54">
         <f t="shared" ref="C143:L143" si="2">SUM(C135:C142)</f>
-        <v>1.395833333333333</v>
+        <v>1.7291666666666667</v>
       </c>
       <c r="D143" s="54">
         <f t="shared" si="2"/>
-        <v>1.15625</v>
+        <v>1.3645833333333333</v>
       </c>
       <c r="E143" s="54">
         <f t="shared" si="2"/>
-        <v>1.1145833333333333</v>
+        <v>1.3229166666666665</v>
       </c>
       <c r="F143" s="54">
         <f t="shared" si="2"/>
-        <v>0.97916666666666674</v>
+        <v>1.4791666666666667</v>
       </c>
       <c r="G143" s="54">
         <f t="shared" si="2"/>
@@ -35553,7 +35574,7 @@
       </c>
       <c r="M143" s="54">
         <f t="shared" si="1"/>
-        <v>4.645833333333333</v>
+        <v>5.895833333333333</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\Sprint2\week4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2707E8-0646-4EBC-A39C-A8C66D86DC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FD3A7-780A-46D2-9306-262FD32D9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1073,7 +1073,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.25</c:v>
+                  <c:v>1.2506944444444443</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.39583333333333337</c:v>
@@ -1314,7 +1314,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7291666666666667</c:v>
+                  <c:v>1.7298611111111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3645833333333333</c:v>
@@ -1353,7 +1353,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7291666666666667</c:v>
+                  <c:v>1.7298611111111108</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3645833333333333</c:v>
@@ -1899,7 +1899,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>0.39652777777777776</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.10416666666666666</c:v>
@@ -4219,7 +4219,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4320,7 +4320,7 @@
         <v>Sprint Planning</v>
       </c>
       <c r="C6" s="14">
-        <v>4.1666666666666664E-2</v>
+        <v>4.2361111111111106E-2</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="44"/>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="C128" s="46">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
-        <v>0.33333333333333331</v>
+        <v>0.33402777777777776</v>
       </c>
       <c r="D128" s="46">
         <f t="shared" si="0"/>
@@ -7311,43 +7311,43 @@
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
-        <v>0.33333333333333331</v>
+        <v>0.33402777777777776</v>
       </c>
       <c r="D130" s="39">
         <f>SUM(D128,C128)</f>
-        <v>0.54166666666666663</v>
+        <v>0.54236111111111107</v>
       </c>
       <c r="E130" s="39">
         <f>SUM(E128,C128,D128)</f>
-        <v>0.75</v>
+        <v>0.75069444444444433</v>
       </c>
       <c r="F130" s="39">
         <f>SUM(C128:F128)</f>
-        <v>1.25</v>
+        <v>1.2506944444444443</v>
       </c>
       <c r="G130" s="39">
         <f>SUM(C128:G128)</f>
-        <v>1.25</v>
+        <v>1.2506944444444443</v>
       </c>
       <c r="H130" s="39">
         <f>SUM(C128:H128)</f>
-        <v>1.25</v>
+        <v>1.2506944444444443</v>
       </c>
       <c r="I130" s="39">
         <f>SUM(C128:I128)</f>
-        <v>1.25</v>
+        <v>1.2506944444444443</v>
       </c>
       <c r="J130" s="39">
         <f>SUM(C128:J128)</f>
-        <v>1.25</v>
+        <v>1.2506944444444443</v>
       </c>
       <c r="K130" s="39">
         <f>SUM(C128:K128)</f>
-        <v>1.25</v>
+        <v>1.2506944444444443</v>
       </c>
       <c r="L130" s="39">
         <f>SUM(C128:L128)</f>
-        <v>1.25</v>
+        <v>1.2506944444444443</v>
       </c>
       <c r="M130" s="47"/>
       <c r="O130" s="39"/>
@@ -7367,43 +7367,43 @@
       </c>
       <c r="C131" s="39">
         <f>Parameters!$G$9-C130</f>
-        <v>5.5</v>
+        <v>5.499305555555555</v>
       </c>
       <c r="D131" s="39">
         <f>Parameters!$G$9-D130</f>
-        <v>5.2916666666666661</v>
+        <v>5.290972222222222</v>
       </c>
       <c r="E131" s="39">
         <f>Parameters!$G$9-E130</f>
-        <v>5.083333333333333</v>
+        <v>5.0826388888888889</v>
       </c>
       <c r="F131" s="39">
         <f>Parameters!$G$9-F130</f>
-        <v>4.583333333333333</v>
+        <v>4.5826388888888889</v>
       </c>
       <c r="G131" s="39">
         <f>Parameters!$G$9-G130</f>
-        <v>4.583333333333333</v>
+        <v>4.5826388888888889</v>
       </c>
       <c r="H131" s="39">
         <f>Parameters!$G$9-H130</f>
-        <v>4.583333333333333</v>
+        <v>4.5826388888888889</v>
       </c>
       <c r="I131" s="39">
         <f>Parameters!$G$9-I130</f>
-        <v>4.583333333333333</v>
+        <v>4.5826388888888889</v>
       </c>
       <c r="J131" s="39">
         <f>Parameters!$G$9-J130</f>
-        <v>4.583333333333333</v>
+        <v>4.5826388888888889</v>
       </c>
       <c r="K131" s="39">
         <f>Parameters!$G$9-K130</f>
-        <v>4.583333333333333</v>
+        <v>4.5826388888888889</v>
       </c>
       <c r="L131" s="39">
         <f>Parameters!$G$9-L130</f>
-        <v>4.583333333333333</v>
+        <v>4.5826388888888889</v>
       </c>
       <c r="O131" s="39"/>
       <c r="P131" s="39"/>
@@ -28793,7 +28793,7 @@
       </c>
       <c r="C6" s="48">
         <f>SUM('Serkan Efe Durusu'!C6,'Ismail Elmasry'!C6,'can Işmar'!C6,'Marios Papalouka'!C6,'Metehan Topaç'!C6,'Celine Zanders '!C6)</f>
-        <v>0.29166666666666663</v>
+        <v>0.29236111111111107</v>
       </c>
       <c r="D6" s="48">
         <f>SUM('Serkan Efe Durusu'!D6,'Ismail Elmasry'!D6,'can Işmar'!D6,'Marios Papalouka'!D6,'Metehan Topaç'!D6,'Celine Zanders '!D6)</f>
@@ -28833,7 +28833,7 @@
       </c>
       <c r="M6" s="49">
         <f t="shared" ref="M6:M122" si="0">SUM(C6:L6)</f>
-        <v>0.39583333333333331</v>
+        <v>0.39652777777777776</v>
       </c>
       <c r="N6" s="50" t="str">
         <f t="array" ref="N6">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M6/INDEX(Tasks,1,3),"")</f>
@@ -35158,7 +35158,7 @@
       </c>
       <c r="C135" s="44">
         <f>'Serkan Efe Durusu'!C128</f>
-        <v>0.33333333333333331</v>
+        <v>0.33402777777777776</v>
       </c>
       <c r="D135" s="44">
         <f>'Serkan Efe Durusu'!D128</f>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="M135" s="54">
         <f t="shared" ref="M135:M143" si="1">SUM(C135:L135)</f>
-        <v>1.25</v>
+        <v>1.2506944444444443</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35534,7 +35534,7 @@
     <row r="143" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="54">
         <f t="shared" ref="C143:L143" si="2">SUM(C135:C142)</f>
-        <v>1.7291666666666667</v>
+        <v>1.7298611111111108</v>
       </c>
       <c r="D143" s="54">
         <f t="shared" si="2"/>
@@ -35574,7 +35574,7 @@
       </c>
       <c r="M143" s="54">
         <f t="shared" si="1"/>
-        <v>5.895833333333333</v>
+        <v>5.896527777777778</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\Sprint2\week4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/c_i_zanders_student_tue_nl/Documents/Documents/gitkraken/Embedded_system_group25/Sprint2/week4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FD3A7-780A-46D2-9306-262FD32D9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{527FD3A7-780A-46D2-9306-262FD32D9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{579D0021-7879-4ABB-8DA2-7F431515BD5B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
                   <c:v>1.2506944444444443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39583333333333337</c:v>
+                  <c:v>0.95833333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.70833333333333326</c:v>
@@ -1174,7 +1174,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2091029163"/>
@@ -1250,7 +1250,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="443840806"/>
@@ -1273,7 +1273,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1314,7 +1314,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7298611111111108</c:v>
+                  <c:v>1.9381944444444443</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3645833333333333</c:v>
@@ -1323,10 +1323,10 @@
                   <c:v>1.3229166666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4791666666666667</c:v>
+                  <c:v>1.6041666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.22916666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1353,7 +1353,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7298611111111108</c:v>
+                  <c:v>1.9381944444444443</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.3645833333333333</c:v>
@@ -1362,10 +1362,10 @@
                   <c:v>1.3229166666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4791666666666667</c:v>
+                  <c:v>1.6041666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.22916666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1446,7 +1446,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1669176459"/>
@@ -1492,7 +1492,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1911,7 +1911,7 @@
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8333333333333333</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2002,7 +2002,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4218,7 +4218,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -16528,7 +16528,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -24650,8 +24650,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24855,15 +24855,21 @@
         <f t="array" ref="B10">INDEX(Tasks,5,2)</f>
         <v>Lectures/Plenary meetings</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="14">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D10" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E10" s="44">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="F10" s="44">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="H10" s="44"/>
       <c r="I10" s="11"/>
       <c r="J10" s="44"/>
@@ -24885,15 +24891,21 @@
         <f t="array" ref="B11">INDEX(Tasks,6,2)</f>
         <v>Sprint Tasks</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="14">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D11" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E11" s="44">
         <v>0.14583333333333334</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="44">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G11" s="44">
+        <v>6.25E-2</v>
+      </c>
       <c r="H11" s="39"/>
       <c r="I11" s="44"/>
       <c r="J11" s="39"/>
@@ -24915,7 +24927,9 @@
         <f t="array" ref="B12">INDEX(Tasks,7,2)</f>
         <v xml:space="preserve">Sprint Task 1.1: Read course material </v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="11">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
@@ -27665,7 +27679,7 @@
       </c>
       <c r="C128" s="46">
         <f t="shared" ref="C128:L128" si="0">SUM(C5:C127)</f>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D128" s="46">
         <f t="shared" si="0"/>
@@ -27677,11 +27691,11 @@
       </c>
       <c r="F128" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G128" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="H128" s="46">
         <f t="shared" si="0"/>
@@ -27734,43 +27748,43 @@
       </c>
       <c r="C130" s="12">
         <f>SUM(C128)</f>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D130" s="39">
         <f>SUM(D128,C128)</f>
-        <v>0.16666666666666666</v>
+        <v>0.375</v>
       </c>
       <c r="E130" s="39">
         <f>SUM(E128,C128,D128)</f>
-        <v>0.39583333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="F130" s="39">
         <f>SUM(C128:F128)</f>
-        <v>0.39583333333333337</v>
+        <v>0.72916666666666674</v>
       </c>
       <c r="G130" s="39">
         <f>SUM(C128:G128)</f>
-        <v>0.39583333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="H130" s="39">
         <f>SUM(C128:H128)</f>
-        <v>0.39583333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="I130" s="39">
         <f>SUM(C128:I128)</f>
-        <v>0.39583333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="J130" s="39">
         <f>SUM(C128:J128)</f>
-        <v>0.39583333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="K130" s="39">
         <f>SUM(C128:K128)</f>
-        <v>0.39583333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="L130" s="39">
         <f>SUM(C128:L128)</f>
-        <v>0.39583333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="M130" s="47"/>
       <c r="O130" s="39"/>
@@ -27790,43 +27804,43 @@
       </c>
       <c r="C131" s="39">
         <f>Parameters!$G$9-C130</f>
-        <v>5.833333333333333</v>
+        <v>5.625</v>
       </c>
       <c r="D131" s="39">
         <f>Parameters!$G$9-D130</f>
-        <v>5.6666666666666661</v>
+        <v>5.458333333333333</v>
       </c>
       <c r="E131" s="39">
         <f>Parameters!$G$9-E130</f>
-        <v>5.4375</v>
+        <v>5.2291666666666661</v>
       </c>
       <c r="F131" s="39">
         <f>Parameters!$G$9-F130</f>
-        <v>5.4375</v>
+        <v>5.1041666666666661</v>
       </c>
       <c r="G131" s="39">
         <f>Parameters!$G$9-G130</f>
-        <v>5.4375</v>
+        <v>4.875</v>
       </c>
       <c r="H131" s="39">
         <f>Parameters!$G$9-H130</f>
-        <v>5.4375</v>
+        <v>4.875</v>
       </c>
       <c r="I131" s="39">
         <f>Parameters!$G$9-I130</f>
-        <v>5.4375</v>
+        <v>4.875</v>
       </c>
       <c r="J131" s="39">
         <f>Parameters!$G$9-J130</f>
-        <v>5.4375</v>
+        <v>4.875</v>
       </c>
       <c r="K131" s="39">
         <f>Parameters!$G$9-K130</f>
-        <v>5.4375</v>
+        <v>4.875</v>
       </c>
       <c r="L131" s="39">
         <f>Parameters!$G$9-L130</f>
-        <v>5.4375</v>
+        <v>4.875</v>
       </c>
       <c r="O131" s="39"/>
       <c r="P131" s="39"/>
@@ -28728,7 +28742,7 @@
   </sheetPr>
   <dimension ref="B1:N1062"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
@@ -29009,7 +29023,7 @@
       </c>
       <c r="C10" s="48">
         <f>SUM('Serkan Efe Durusu'!C10,'Ismail Elmasry'!C10,'can Işmar'!C10,'Marios Papalouka'!C10,'Metehan Topaç'!C10,'Celine Zanders '!C10)</f>
-        <v>0.72916666666666663</v>
+        <v>0.89583333333333326</v>
       </c>
       <c r="D10" s="48">
         <f>SUM('Serkan Efe Durusu'!D10,'Ismail Elmasry'!D10,'can Işmar'!D10,'Marios Papalouka'!D10,'Metehan Topaç'!D10,'Celine Zanders '!D10)</f>
@@ -29021,11 +29035,11 @@
       </c>
       <c r="F10" s="48">
         <f>SUM('Serkan Efe Durusu'!F10,'Ismail Elmasry'!F10,'can Işmar'!F10,'Marios Papalouka'!F10,'Metehan Topaç'!F10,'Celine Zanders '!F10)</f>
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G10" s="48">
         <f>SUM('Serkan Efe Durusu'!G10,'Ismail Elmasry'!G10,'can Işmar'!G10,'Marios Papalouka'!G10,'Metehan Topaç'!G10,'Celine Zanders '!G10)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="H10" s="48">
         <f>SUM('Serkan Efe Durusu'!H10,'Ismail Elmasry'!H10,'can Işmar'!H10,'Marios Papalouka'!H10,'Metehan Topaç'!H10,'Celine Zanders '!H10)</f>
@@ -29049,7 +29063,7 @@
       </c>
       <c r="M10" s="51">
         <f t="shared" si="0"/>
-        <v>1.8333333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="N10" s="50" t="str">
         <f t="array" ref="N10">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M10/INDEX(Tasks,1,3),"")</f>
@@ -29063,7 +29077,7 @@
       </c>
       <c r="C11" s="48">
         <f>SUM('Serkan Efe Durusu'!C11,'Ismail Elmasry'!C11,'can Işmar'!C11,'Marios Papalouka'!C11,'Metehan Topaç'!D11,'Celine Zanders '!C11)</f>
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="D11" s="48" t="e">
         <f>SUM('Serkan Efe Durusu'!D11,'Ismail Elmasry'!D11,'can Işmar'!D11,'Marios Papalouka'!D11,'Metehan Topaç'!#REF!,'Celine Zanders '!D11)</f>
@@ -29075,11 +29089,11 @@
       </c>
       <c r="F11" s="48">
         <f>SUM('Serkan Efe Durusu'!F11,'Ismail Elmasry'!F11,'can Işmar'!F11,'Marios Papalouka'!F11,'Metehan Topaç'!F11,'Celine Zanders '!F11)</f>
-        <v>0.625</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G11" s="48">
         <f>SUM('Serkan Efe Durusu'!G11,'Ismail Elmasry'!G11,'can Işmar'!G11,'Marios Papalouka'!G11,'Metehan Topaç'!G11,'Celine Zanders '!G11)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H11" s="48">
         <f>SUM('Serkan Efe Durusu'!H11,'Ismail Elmasry'!H11,'can Işmar'!H11,'Marios Papalouka'!H11,'Metehan Topaç'!H11,'Celine Zanders '!H11)</f>
@@ -29117,7 +29131,7 @@
       </c>
       <c r="C12" s="48">
         <f>SUM('Serkan Efe Durusu'!C12,'Ismail Elmasry'!C12,'can Işmar'!C12,'Marios Papalouka'!C12,'Metehan Topaç'!D12,'Celine Zanders '!C12)</f>
-        <v>0.22916666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="D12" s="48" t="e">
         <f>SUM('Serkan Efe Durusu'!D12,'Ismail Elmasry'!D12,'can Işmar'!D12,'Marios Papalouka'!D12,'Metehan Topaç'!#REF!,'Celine Zanders '!D12)</f>
@@ -35208,7 +35222,7 @@
       </c>
       <c r="C136" s="26">
         <f>'Celine Zanders '!C128</f>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="D136" s="26">
         <f>'Celine Zanders '!D128</f>
@@ -35220,11 +35234,11 @@
       </c>
       <c r="F136" s="26">
         <f>'Celine Zanders '!F128</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G136" s="26">
         <f>'Celine Zanders '!G128</f>
-        <v>0</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="H136" s="26">
         <f>'Celine Zanders '!H128</f>
@@ -35248,7 +35262,7 @@
       </c>
       <c r="M136" s="54">
         <f t="shared" si="1"/>
-        <v>0.39583333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="137" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35534,7 +35548,7 @@
     <row r="143" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C143" s="54">
         <f t="shared" ref="C143:L143" si="2">SUM(C135:C142)</f>
-        <v>1.7298611111111108</v>
+        <v>1.9381944444444443</v>
       </c>
       <c r="D143" s="54">
         <f t="shared" si="2"/>
@@ -35546,11 +35560,11 @@
       </c>
       <c r="F143" s="54">
         <f t="shared" si="2"/>
-        <v>1.4791666666666667</v>
+        <v>1.6041666666666667</v>
       </c>
       <c r="G143" s="54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="H143" s="54">
         <f t="shared" si="2"/>
@@ -35574,7 +35588,7 @@
       </c>
       <c r="M143" s="54">
         <f t="shared" si="1"/>
-        <v>5.896527777777778</v>
+        <v>6.459027777777778</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
+++ b/Sprint2/week4/Group25 DBL Scrum Timesheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G\Documents\Documenten TU-Eindhoven\Year 1 - Q4\DBL C++\Github\Embedded_system_group25\Sprint2\week4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FD3A7-780A-46D2-9306-262FD32D9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5FD790-54E3-40DC-882E-A89D2928040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="191">
   <si>
     <t>Project:</t>
   </si>
@@ -617,6 +617,9 @@
   <si>
     <t>Sprint Task 2.4: Coding and configuring Raspberry Pi</t>
   </si>
+  <si>
+    <t>Workshop</t>
+  </si>
 </sst>
 </file>
 
@@ -1073,7 +1076,7 @@
                 <c:formatCode>[h]:mm</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.2506944444444443</c:v>
+                  <c:v>1.5840277777777776</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.39583333333333337</c:v>
@@ -1326,7 +1329,7 @@
                   <c:v>1.4791666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1365,7 +1368,7 @@
                   <c:v>1.4791666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1911,7 +1914,7 @@
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8333333333333333</c:v>
+                  <c:v>1.9166666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1920,7 +1923,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>0.14583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.2083333333333329E-2</c:v>
@@ -4219,7 +4222,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4437,7 +4440,9 @@
       <c r="F10" s="44">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="44">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H10" s="44"/>
       <c r="I10" s="11"/>
       <c r="J10" s="44"/>
@@ -4471,7 +4476,9 @@
       <c r="F11" s="44">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="44">
+        <v>0.125</v>
+      </c>
       <c r="H11" s="39"/>
       <c r="I11" s="44"/>
       <c r="J11" s="39"/>
@@ -4517,12 +4524,16 @@
       <c r="X12" s="39"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="G13" s="44">
+        <v>0.125</v>
+      </c>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
@@ -7258,7 +7269,7 @@
       </c>
       <c r="G128" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H128" s="46">
         <f t="shared" si="0"/>
@@ -7327,27 +7338,27 @@
       </c>
       <c r="G130" s="39">
         <f>SUM(C128:G128)</f>
-        <v>1.2506944444444443</v>
+        <v>1.5840277777777776</v>
       </c>
       <c r="H130" s="39">
         <f>SUM(C128:H128)</f>
-        <v>1.2506944444444443</v>
+        <v>1.5840277777777776</v>
       </c>
       <c r="I130" s="39">
         <f>SUM(C128:I128)</f>
-        <v>1.2506944444444443</v>
+        <v>1.5840277777777776</v>
       </c>
       <c r="J130" s="39">
         <f>SUM(C128:J128)</f>
-        <v>1.2506944444444443</v>
+        <v>1.5840277777777776</v>
       </c>
       <c r="K130" s="39">
         <f>SUM(C128:K128)</f>
-        <v>1.2506944444444443</v>
+        <v>1.5840277777777776</v>
       </c>
       <c r="L130" s="39">
         <f>SUM(C128:L128)</f>
-        <v>1.2506944444444443</v>
+        <v>1.5840277777777776</v>
       </c>
       <c r="M130" s="47"/>
       <c r="O130" s="39"/>
@@ -7383,27 +7394,27 @@
       </c>
       <c r="G131" s="39">
         <f>Parameters!$G$9-G130</f>
-        <v>4.5826388888888889</v>
+        <v>4.249305555555555</v>
       </c>
       <c r="H131" s="39">
         <f>Parameters!$G$9-H130</f>
-        <v>4.5826388888888889</v>
+        <v>4.249305555555555</v>
       </c>
       <c r="I131" s="39">
         <f>Parameters!$G$9-I130</f>
-        <v>4.5826388888888889</v>
+        <v>4.249305555555555</v>
       </c>
       <c r="J131" s="39">
         <f>Parameters!$G$9-J130</f>
-        <v>4.5826388888888889</v>
+        <v>4.249305555555555</v>
       </c>
       <c r="K131" s="39">
         <f>Parameters!$G$9-K130</f>
-        <v>4.5826388888888889</v>
+        <v>4.249305555555555</v>
       </c>
       <c r="L131" s="39">
         <f>Parameters!$G$9-L130</f>
-        <v>4.5826388888888889</v>
+        <v>4.249305555555555</v>
       </c>
       <c r="O131" s="39"/>
       <c r="P131" s="39"/>
@@ -8305,7 +8316,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -12429,7 +12440,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B109" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -16528,7 +16539,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView topLeftCell="B103" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -20616,7 +20627,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -24650,7 +24661,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -29025,7 +29036,7 @@
       </c>
       <c r="G10" s="48">
         <f>SUM('Serkan Efe Durusu'!G10,'Ismail Elmasry'!G10,'can Işmar'!G10,'Marios Papalouka'!G10,'Metehan Topaç'!G10,'Celine Zanders '!G10)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="H10" s="48">
         <f>SUM('Serkan Efe Durusu'!H10,'Ismail Elmasry'!H10,'can Işmar'!H10,'Marios Papalouka'!H10,'Metehan Topaç'!H10,'Celine Zanders '!H10)</f>
@@ -29049,7 +29060,7 @@
       </c>
       <c r="M10" s="51">
         <f t="shared" si="0"/>
-        <v>1.8333333333333333</v>
+        <v>1.9166666666666665</v>
       </c>
       <c r="N10" s="50" t="str">
         <f t="array" ref="N10">IF(INDEX(Tasks,1,3)&lt;&gt;"",100*M10/INDEX(Tasks,1,3),"")</f>
@@ -29079,7 +29090,7 @@
       </c>
       <c r="G11" s="48">
         <f>SUM('Serkan Efe Durusu'!G11,'Ismail Elmasry'!G11,'can Işmar'!G11,'Marios Papalouka'!G11,'Metehan Topaç'!G11,'Celine Zanders '!G11)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H11" s="48">
         <f>SUM('Serkan Efe Durusu'!H11,'Ismail Elmasry'!H11,'can Işmar'!H11,'Marios Papalouka'!H11,'Metehan Topaç'!H11,'Celine Zanders '!H11)</f>
@@ -29187,7 +29198,7 @@
       </c>
       <c r="G13" s="48">
         <f>SUM('Serkan Efe Durusu'!G13,'Ismail Elmasry'!G13,'can Işmar'!G13,'Marios Papalouka'!G13,'Metehan Topaç'!G13,'Celine Zanders '!G13)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H13" s="48">
         <f>SUM('Serkan Efe Durusu'!H13,'Ismail Elmasry'!H13,'can Işmar'!H13,'Marios Papalouka'!H13,'Metehan Topaç'!H13,'Celine Zanders '!H13)</f>
@@ -29211,7 +29222,7 @@
       </c>
       <c r="M13" s="51">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="N13" s="50" t="str">
         <f t="array" ref="N13">IF(INDEX(Tasks,2,3)&lt;&gt;"",100*M13/INDEX(Tasks,2,3),"")</f>
@@ -35174,7 +35185,7 @@
       </c>
       <c r="G135" s="44">
         <f>'Serkan Efe Durusu'!G128</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H135" s="44">
         <f>'Serkan Efe Durusu'!H128</f>
@@ -35198,7 +35209,7 @@
       </c>
       <c r="M135" s="54">
         <f t="shared" ref="M135:M143" si="1">SUM(C135:L135)</f>
-        <v>1.2506944444444443</v>
+        <v>1.5840277777777776</v>
       </c>
     </row>
     <row r="136" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -35550,7 +35561,7 @@
       </c>
       <c r="G143" s="54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H143" s="54">
         <f t="shared" si="2"/>
@@ -35574,7 +35585,7 @@
       </c>
       <c r="M143" s="54">
         <f t="shared" si="1"/>
-        <v>5.896527777777778</v>
+        <v>6.2298611111111111</v>
       </c>
     </row>
     <row r="144" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
